--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\1 - Django Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\CSIT327\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC1375-D91D-4CDB-8D39-EABDAC825E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA167B-CC60-44B8-9B61-B359566AAFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80A28B27-6543-4869-8D2F-6B9B712F5184}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>System Name</t>
   </si>
@@ -80,12 +80,6 @@
     <t xml:space="preserve">Status </t>
   </si>
   <si>
-    <t>1. LOGIN</t>
-  </si>
-  <si>
-    <t>1.1. Creating UI</t>
-  </si>
-  <si>
     <t>Videogame Trading System</t>
   </si>
   <si>
@@ -95,41 +89,95 @@
     <t>Mikhail James Navarro</t>
   </si>
   <si>
-    <t>1.2. Integrate with Database</t>
-  </si>
-  <si>
-    <t>2. HOMEPAGE</t>
-  </si>
-  <si>
-    <t>1.3. Password Recovery</t>
-  </si>
-  <si>
-    <t>2.1. Price Tracking</t>
-  </si>
-  <si>
-    <t>2.1.1. Design UI</t>
-  </si>
-  <si>
-    <t>2.1.2. Integrate API</t>
-  </si>
-  <si>
-    <t>3. ALERT SYSTEM</t>
-  </si>
-  <si>
-    <t>4. LOGOUT</t>
-  </si>
-  <si>
     <t>To do</t>
   </si>
   <si>
     <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>1. USER AUTHENTICATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1. Integrate with Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2. User Login/Signout Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3. User Registration Functionality</t>
+  </si>
+  <si>
+    <t>2. INITIAL DESIGN (Figma)</t>
+  </si>
+  <si>
+    <t>3. API INTEGRATION</t>
+  </si>
+  <si>
+    <t>4. ENTITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.1. User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.1.1. Create User Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.2. Watchlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.2.1. Create Watchlist Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.3. Forums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.4. Price History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.3.1. Create Forums Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.4.1. Create Price History Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.1.2. Create User Views/Template/URLs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.2.2. Create Watchlist Views/Template/URLs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.3.2. Create Forums Views/Template/URLs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.4.2. Create Price History Views/Template/URLs</t>
+  </si>
+  <si>
+    <t>5. WEBPAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.1 FAQs Page</t>
+  </si>
+  <si>
+    <t>6. FINALIZE DESIGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.1. API Fetch  Functionalities</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +198,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,17 +278,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -285,11 +342,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,9 +365,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,6 +378,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,10 +390,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,27 +731,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4565EB7D-146C-400E-B33F-D49A5EEC4327}">
-  <dimension ref="A2:Q25"/>
+  <dimension ref="A2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -694,12 +765,12 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -713,10 +784,10 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -730,7 +801,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -745,7 +816,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -760,7 +831,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -775,7 +846,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -794,7 +865,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
@@ -811,7 +882,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
@@ -828,7 +899,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
@@ -845,365 +916,890 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="17" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+      <c r="F13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="17" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" s="21"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="7">
         <v>4</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J14" s="7">
         <v>1</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K14" s="7">
         <v>2</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L14" s="7">
         <v>3</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M14" s="7">
         <v>4</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N14" s="7">
         <v>1</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O14" s="7">
         <v>2</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P14" s="7">
         <v>3</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q14" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="R14" s="7">
+        <v>1</v>
+      </c>
+      <c r="S14" s="7">
+        <v>2</v>
+      </c>
+      <c r="T14" s="7">
+        <v>3</v>
+      </c>
+      <c r="U14" s="7">
+        <v>4</v>
+      </c>
+      <c r="V14" s="7">
+        <v>1</v>
+      </c>
+      <c r="W14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="15"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="9"/>
+      <c r="E18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+    </row>
+    <row r="20" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+    </row>
+    <row r="22" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="10"/>
+    </row>
+    <row r="23" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+    </row>
+    <row r="26" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+    </row>
+    <row r="29" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+    </row>
+    <row r="32" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+    </row>
+    <row r="35" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+    </row>
+    <row r="39" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
+  <mergeCells count="5">
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
